--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationtreatmentplan.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationtreatmentplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9771" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9733" uniqueCount="850">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mtp-composition-title:The MTP composition title must be: 'Therapieentscheid Medikation' in German or 'Décision thérapeutique relative à la médication' in French or 'Decisione terapeutica di trattamento farmacologico' in Italian or 'Medication Treatment Plan' in English or titles in other languages are also allowed. {(language.startsWith('en') implies title = 'Medication Treatment Plan') and (language.startsWith('fr') implies title = 'Décision thérapeutique relative à la médication') and (language.startsWith('de') implies title = 'Therapieentscheid Medikation') and (language.startsWith('it') implies title = 'Decisione terapeutica di trattamento farmacologico')}</t>
   </si>
   <si>
     <t>Event</t>
@@ -433,7 +433,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -862,7 +862,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1506,7 +1506,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.confidentialityCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.confidentialityCode</t>
   </si>
   <si>
     <t>Composition.confidentiality.extension:confidentialityCode.value[x]:valueCodeableConcept.id</t>
@@ -1986,7 +1986,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -2354,25 +2354,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](http://hl7.org/fhir/R4/extension-originaltext.html) which claims that the data is derived from the text provided or linked to.</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.reference</t>
@@ -2989,7 +2970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO263"/>
+  <dimension ref="A1:AO262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2998,15 +2979,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="103.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3017,27 +2998,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24321,11 +24302,9 @@
         <v>753</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
         <v>79</v>
       </c>
@@ -24343,19 +24322,19 @@
         <v>79</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>755</v>
+        <v>106</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>756</v>
+        <v>350</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>757</v>
+        <v>351</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>758</v>
+        <v>352</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24405,25 +24384,25 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>79</v>
@@ -24437,10 +24416,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24463,16 +24442,16 @@
         <v>93</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -24498,13 +24477,13 @@
         <v>79</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>79</v>
@@ -24522,7 +24501,7 @@
         <v>79</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24531,7 +24510,7 @@
         <v>92</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>104</v>
@@ -24554,10 +24533,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24580,16 +24559,16 @@
         <v>93</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -24615,13 +24594,13 @@
         <v>79</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>79</v>
@@ -24639,7 +24618,7 @@
         <v>79</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24657,7 +24636,7 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>79</v>
@@ -24671,10 +24650,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24697,16 +24676,16 @@
         <v>93</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -24756,7 +24735,7 @@
         <v>79</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24774,7 +24753,7 @@
         <v>79</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>79</v>
@@ -24788,10 +24767,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24811,21 +24790,23 @@
         <v>79</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O187" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P187" t="s" s="2">
         <v>79</v>
       </c>
@@ -24849,13 +24830,13 @@
         <v>79</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>79</v>
@@ -24873,7 +24854,7 @@
         <v>79</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -24882,7 +24863,7 @@
         <v>92</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>104</v>
@@ -24891,10 +24872,10 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>179</v>
+        <v>702</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
@@ -24905,10 +24886,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24919,7 +24900,7 @@
         <v>80</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>79</v>
@@ -24931,7 +24912,7 @@
         <v>79</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L188" t="s" s="2">
         <v>113</v>
@@ -24940,11 +24921,9 @@
         <v>114</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>79</v>
       </c>
@@ -24968,13 +24947,13 @@
         <v>79</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>79</v>
@@ -24992,16 +24971,16 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>104</v>
@@ -25010,10 +24989,10 @@
         <v>79</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -25024,21 +25003,23 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="D189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>79</v>
@@ -25050,17 +25031,15 @@
         <v>79</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>113</v>
+        <v>761</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>79</v>
@@ -25109,7 +25088,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25118,10 +25097,10 @@
         <v>81</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>79</v>
@@ -25130,7 +25109,7 @@
         <v>636</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
@@ -25141,20 +25120,18 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>92</v>
@@ -25169,13 +25146,13 @@
         <v>79</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>767</v>
+        <v>107</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>633</v>
+        <v>108</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25226,28 +25203,28 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>79</v>
@@ -25258,21 +25235,21 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>79</v>
@@ -25284,15 +25261,17 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -25341,19 +25320,19 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>79</v>
@@ -25373,43 +25352,41 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>79</v>
@@ -25458,7 +25435,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25476,7 +25453,7 @@
         <v>79</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>79</v>
@@ -25490,42 +25467,46 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>181</v>
+        <v>766</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
       </c>
@@ -25573,28 +25554,28 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>79</v>
@@ -25605,14 +25586,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -25631,19 +25612,19 @@
         <v>79</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>772</v>
+        <v>648</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>79</v>
@@ -25653,7 +25634,7 @@
         <v>79</v>
       </c>
       <c r="S194" t="s" s="2">
-        <v>79</v>
+        <v>768</v>
       </c>
       <c r="T194" t="s" s="2">
         <v>79</v>
@@ -25668,13 +25649,13 @@
         <v>79</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>79</v>
@@ -25692,7 +25673,7 @@
         <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -25710,10 +25691,10 @@
         <v>79</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>79</v>
@@ -25724,10 +25705,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25735,7 +25716,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>92</v>
@@ -25750,20 +25731,16 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
         <v>79</v>
       </c>
@@ -25772,7 +25749,7 @@
         <v>79</v>
       </c>
       <c r="S195" t="s" s="2">
-        <v>774</v>
+        <v>79</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>79</v>
@@ -25787,13 +25764,13 @@
         <v>79</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>79</v>
@@ -25811,7 +25788,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>647</v>
+        <v>109</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -25823,16 +25800,16 @@
         <v>79</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>79</v>
@@ -25843,10 +25820,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25857,7 +25834,7 @@
         <v>80</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>79</v>
@@ -25869,13 +25846,13 @@
         <v>79</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -25914,37 +25891,37 @@
         <v>79</v>
       </c>
       <c r="AB196" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC196" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>79</v>
@@ -25958,10 +25935,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25981,19 +25958,23 @@
         <v>79</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N197" s="2"/>
-      <c r="O197" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O197" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P197" t="s" s="2">
         <v>79</v>
       </c>
@@ -26029,19 +26010,19 @@
         <v>79</v>
       </c>
       <c r="AB197" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC197" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD197" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -26053,13 +26034,13 @@
         <v>79</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>79</v>
@@ -26073,10 +26054,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26087,7 +26068,7 @@
         <v>80</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>79</v>
@@ -26096,23 +26077,19 @@
         <v>79</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
         <v>79</v>
       </c>
@@ -26160,25 +26137,25 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>79</v>
@@ -26192,10 +26169,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26206,7 +26183,7 @@
         <v>80</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>79</v>
@@ -26218,13 +26195,13 @@
         <v>79</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26263,37 +26240,37 @@
         <v>79</v>
       </c>
       <c r="AB199" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC199" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD199" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI199" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>79</v>
@@ -26307,10 +26284,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26321,7 +26298,7 @@
         <v>80</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>79</v>
@@ -26330,19 +26307,23 @@
         <v>79</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
       </c>
@@ -26378,37 +26359,37 @@
         <v>79</v>
       </c>
       <c r="AB200" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC200" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>79</v>
@@ -26422,10 +26403,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26448,20 +26429,18 @@
         <v>93</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
         <v>79</v>
       </c>
@@ -26509,7 +26488,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -26527,7 +26506,7 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>79</v>
@@ -26541,10 +26520,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26567,18 +26546,18 @@
         <v>93</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O202" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N202" s="2"/>
+      <c r="O202" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P202" t="s" s="2">
         <v>79</v>
       </c>
@@ -26626,7 +26605,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -26644,7 +26623,7 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>79</v>
@@ -26658,10 +26637,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26684,17 +26663,17 @@
         <v>93</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>79</v>
@@ -26743,7 +26722,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -26761,7 +26740,7 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>79</v>
@@ -26775,10 +26754,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26801,17 +26780,19 @@
         <v>93</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N204" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O204" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -26860,7 +26841,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -26878,7 +26859,7 @@
         <v>79</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>79</v>
@@ -26892,10 +26873,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26918,19 +26899,19 @@
         <v>93</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -26979,7 +26960,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -26997,7 +26978,7 @@
         <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>79</v>
@@ -27011,10 +26992,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27025,7 +27006,7 @@
         <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>79</v>
@@ -27034,22 +27015,20 @@
         <v>79</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>79</v>
@@ -27098,13 +27077,13 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>321</v>
+        <v>654</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>79</v>
@@ -27116,24 +27095,24 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27144,7 +27123,7 @@
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>79</v>
@@ -27156,18 +27135,18 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>113</v>
+        <v>782</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N207" s="2"/>
-      <c r="O207" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>79</v>
       </c>
@@ -27215,13 +27194,13 @@
         <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
@@ -27233,24 +27212,24 @@
         <v>79</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO207" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27258,7 +27237,7 @@
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>92</v>
@@ -27273,16 +27252,16 @@
         <v>79</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>789</v>
+        <v>663</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27332,7 +27311,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27341,7 +27320,7 @@
         <v>92</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>104</v>
@@ -27350,10 +27329,10 @@
         <v>79</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>79</v>
@@ -27364,10 +27343,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27375,7 +27354,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>92</v>
@@ -27390,18 +27369,20 @@
         <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>791</v>
+        <v>668</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O209" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
       </c>
@@ -27425,13 +27406,13 @@
         <v>79</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>79</v>
@@ -27449,7 +27430,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -27458,7 +27439,7 @@
         <v>92</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>104</v>
@@ -27467,24 +27448,24 @@
         <v>79</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO209" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27507,19 +27488,19 @@
         <v>79</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -27544,13 +27525,13 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -27568,7 +27549,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -27586,7 +27567,7 @@
         <v>79</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>110</v>
@@ -27595,15 +27576,15 @@
         <v>79</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27611,7 +27592,7 @@
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>92</v>
@@ -27626,20 +27607,18 @@
         <v>79</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>220</v>
+        <v>789</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>746</v>
+        <v>790</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
       </c>
@@ -27663,13 +27642,13 @@
         <v>79</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>79</v>
@@ -27687,16 +27666,16 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>104</v>
@@ -27705,10 +27684,10 @@
         <v>79</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>79</v>
@@ -27719,10 +27698,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27730,7 +27709,7 @@
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G212" t="s" s="2">
         <v>92</v>
@@ -27745,17 +27724,15 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>795</v>
+        <v>106</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>796</v>
+        <v>107</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -27804,28 +27781,28 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>682</v>
+        <v>109</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>686</v>
+        <v>79</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>687</v>
+        <v>110</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>688</v>
+        <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>79</v>
@@ -27836,21 +27813,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>79</v>
@@ -27862,15 +27839,17 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N213" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -27907,31 +27886,31 @@
         <v>79</v>
       </c>
       <c r="AB213" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC213" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>79</v>
@@ -27951,21 +27930,21 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>79</v>
@@ -27974,19 +27953,19 @@
         <v>79</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -28024,37 +28003,37 @@
         <v>79</v>
       </c>
       <c r="AB214" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>79</v>
@@ -28068,10 +28047,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28079,7 +28058,7 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>92</v>
@@ -28094,16 +28073,16 @@
         <v>93</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28129,13 +28108,13 @@
         <v>79</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>79</v>
@@ -28153,7 +28132,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28162,7 +28141,7 @@
         <v>92</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>104</v>
@@ -28185,10 +28164,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28211,16 +28190,16 @@
         <v>93</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -28246,13 +28225,13 @@
         <v>79</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -28270,7 +28249,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28288,7 +28267,7 @@
         <v>79</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>79</v>
@@ -28302,10 +28281,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28328,16 +28307,16 @@
         <v>93</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -28387,7 +28366,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -28405,7 +28384,7 @@
         <v>79</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>79</v>
@@ -28419,10 +28398,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28442,21 +28421,23 @@
         <v>79</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>370</v>
+        <v>697</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
       </c>
@@ -28480,13 +28461,13 @@
         <v>79</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z218" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA218" t="s" s="2">
         <v>79</v>
@@ -28504,7 +28485,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -28513,7 +28494,7 @@
         <v>92</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>104</v>
@@ -28522,10 +28503,10 @@
         <v>79</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>179</v>
+        <v>702</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>79</v>
@@ -28536,10 +28517,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28550,7 +28531,7 @@
         <v>80</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>79</v>
@@ -28562,20 +28543,18 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>79</v>
       </c>
@@ -28599,13 +28578,13 @@
         <v>79</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>79</v>
@@ -28623,16 +28602,16 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>104</v>
@@ -28641,10 +28620,10 @@
         <v>79</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>79</v>
@@ -28655,12 +28634,14 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C220" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="D220" t="s" s="2">
         <v>79</v>
       </c>
@@ -28669,7 +28650,7 @@
         <v>80</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>79</v>
@@ -28681,17 +28662,15 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>704</v>
+        <v>801</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -28740,7 +28719,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -28749,10 +28728,10 @@
         <v>81</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
@@ -28761,7 +28740,7 @@
         <v>636</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>79</v>
@@ -28772,14 +28751,12 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C221" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
         <v>79</v>
       </c>
@@ -28800,13 +28777,13 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>807</v>
+        <v>113</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>633</v>
+        <v>114</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -28857,28 +28834,28 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>79</v>
@@ -28889,21 +28866,21 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>79</v>
@@ -28915,15 +28892,17 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N222" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>79</v>
@@ -28972,19 +28951,19 @@
         <v>79</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
@@ -29004,43 +28983,41 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N223" s="2"/>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>79</v>
@@ -29089,7 +29066,7 @@
         <v>79</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -29107,7 +29084,7 @@
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>79</v>
@@ -29121,42 +29098,46 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I224" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>181</v>
+        <v>806</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P224" t="s" s="2">
         <v>79</v>
       </c>
@@ -29204,28 +29185,28 @@
         <v>79</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>79</v>
@@ -29236,14 +29217,14 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
@@ -29262,19 +29243,19 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>812</v>
+        <v>648</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>79</v>
@@ -29284,7 +29265,7 @@
         <v>79</v>
       </c>
       <c r="S225" t="s" s="2">
-        <v>79</v>
+        <v>808</v>
       </c>
       <c r="T225" t="s" s="2">
         <v>79</v>
@@ -29299,13 +29280,13 @@
         <v>79</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>79</v>
@@ -29323,7 +29304,7 @@
         <v>79</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -29341,10 +29322,10 @@
         <v>79</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>79</v>
@@ -29355,10 +29336,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29366,7 +29347,7 @@
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>92</v>
@@ -29381,20 +29362,16 @@
         <v>79</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>79</v>
       </c>
@@ -29403,7 +29380,7 @@
         <v>79</v>
       </c>
       <c r="S226" t="s" s="2">
-        <v>814</v>
+        <v>79</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>79</v>
@@ -29418,13 +29395,13 @@
         <v>79</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>79</v>
@@ -29442,7 +29419,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>647</v>
+        <v>109</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -29454,16 +29431,16 @@
         <v>79</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>79</v>
@@ -29474,10 +29451,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29488,7 +29465,7 @@
         <v>80</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>79</v>
@@ -29500,13 +29477,13 @@
         <v>79</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -29545,37 +29522,37 @@
         <v>79</v>
       </c>
       <c r="AB227" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>79</v>
@@ -29589,10 +29566,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29612,19 +29589,23 @@
         <v>79</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P228" t="s" s="2">
         <v>79</v>
       </c>
@@ -29660,19 +29641,19 @@
         <v>79</v>
       </c>
       <c r="AB228" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC228" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD228" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>80</v>
@@ -29684,13 +29665,13 @@
         <v>79</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK228" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>79</v>
@@ -29704,10 +29685,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29718,7 +29699,7 @@
         <v>80</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>79</v>
@@ -29727,23 +29708,19 @@
         <v>79</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
         <v>79</v>
       </c>
@@ -29791,25 +29768,25 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>79</v>
@@ -29823,10 +29800,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29837,7 +29814,7 @@
         <v>80</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>79</v>
@@ -29849,13 +29826,13 @@
         <v>79</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -29894,37 +29871,37 @@
         <v>79</v>
       </c>
       <c r="AB230" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>79</v>
@@ -29938,10 +29915,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29952,7 +29929,7 @@
         <v>80</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>79</v>
@@ -29961,19 +29938,23 @@
         <v>79</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P231" t="s" s="2">
         <v>79</v>
       </c>
@@ -30009,37 +29990,37 @@
         <v>79</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>79</v>
@@ -30053,10 +30034,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30079,20 +30060,18 @@
         <v>93</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>79</v>
       </c>
@@ -30140,7 +30119,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
@@ -30158,7 +30137,7 @@
         <v>79</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>79</v>
@@ -30172,10 +30151,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30198,18 +30177,18 @@
         <v>93</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N233" s="2"/>
+      <c r="O233" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
       </c>
@@ -30257,7 +30236,7 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
@@ -30275,7 +30254,7 @@
         <v>79</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>79</v>
@@ -30289,10 +30268,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30315,17 +30294,17 @@
         <v>93</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -30374,7 +30353,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
@@ -30392,7 +30371,7 @@
         <v>79</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>79</v>
@@ -30406,10 +30385,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30432,17 +30411,19 @@
         <v>93</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N235" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O235" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>79</v>
@@ -30491,7 +30472,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>80</v>
@@ -30509,7 +30490,7 @@
         <v>79</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>79</v>
@@ -30523,10 +30504,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30549,19 +30530,19 @@
         <v>93</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -30610,7 +30591,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
@@ -30628,7 +30609,7 @@
         <v>79</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>79</v>
@@ -30642,10 +30623,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -30656,7 +30637,7 @@
         <v>80</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>79</v>
@@ -30665,22 +30646,20 @@
         <v>79</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>317</v>
+        <v>656</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>79</v>
@@ -30729,13 +30708,13 @@
         <v>79</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>321</v>
+        <v>654</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH237" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI237" t="s" s="2">
         <v>79</v>
@@ -30747,24 +30726,24 @@
         <v>79</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AM237" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN237" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO237" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30775,7 +30754,7 @@
         <v>80</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>79</v>
@@ -30787,18 +30766,18 @@
         <v>79</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N238" s="2"/>
-      <c r="O238" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>79</v>
       </c>
@@ -30846,13 +30825,13 @@
         <v>79</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI238" t="s" s="2">
         <v>79</v>
@@ -30864,24 +30843,24 @@
         <v>79</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM238" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO238" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30889,7 +30868,7 @@
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>92</v>
@@ -30904,16 +30883,16 @@
         <v>79</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>113</v>
+        <v>785</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>114</v>
+        <v>663</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -30963,7 +30942,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>80</v>
@@ -30972,7 +30951,7 @@
         <v>92</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>104</v>
@@ -30981,10 +30960,10 @@
         <v>79</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN239" t="s" s="2">
         <v>79</v>
@@ -30995,10 +30974,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31006,7 +30985,7 @@
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>92</v>
@@ -31021,18 +31000,20 @@
         <v>79</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>791</v>
+        <v>668</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O240" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P240" t="s" s="2">
         <v>79</v>
       </c>
@@ -31056,13 +31037,13 @@
         <v>79</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>79</v>
@@ -31080,7 +31061,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>80</v>
@@ -31089,7 +31070,7 @@
         <v>92</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>104</v>
@@ -31098,24 +31079,24 @@
         <v>79</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO240" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31138,19 +31119,19 @@
         <v>79</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -31175,13 +31156,13 @@
         <v>79</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA241" t="s" s="2">
         <v>79</v>
@@ -31199,7 +31180,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>80</v>
@@ -31217,7 +31198,7 @@
         <v>79</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>110</v>
@@ -31226,15 +31207,15 @@
         <v>79</v>
       </c>
       <c r="AO241" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31245,7 +31226,7 @@
         <v>80</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>79</v>
@@ -31257,20 +31238,18 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>220</v>
+        <v>627</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
         <v>79</v>
       </c>
@@ -31294,13 +31273,13 @@
         <v>79</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>79</v>
@@ -31318,16 +31297,16 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>104</v>
@@ -31336,10 +31315,10 @@
         <v>79</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM242" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN242" t="s" s="2">
         <v>79</v>
@@ -31350,10 +31329,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31364,7 +31343,7 @@
         <v>80</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>79</v>
@@ -31376,18 +31355,20 @@
         <v>79</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>627</v>
+        <v>220</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>683</v>
+        <v>113</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>684</v>
+        <v>114</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O243" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
       </c>
@@ -31411,13 +31392,13 @@
         <v>79</v>
       </c>
       <c r="X243" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA243" t="s" s="2">
         <v>79</v>
@@ -31435,13 +31416,13 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI243" t="s" s="2">
         <v>686</v>
@@ -31453,10 +31434,10 @@
         <v>79</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AM243" t="s" s="2">
-        <v>688</v>
+        <v>110</v>
       </c>
       <c r="AN243" t="s" s="2">
         <v>79</v>
@@ -31467,10 +31448,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31481,7 +31462,7 @@
         <v>80</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>79</v>
@@ -31493,7 +31474,7 @@
         <v>79</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>113</v>
@@ -31502,11 +31483,9 @@
         <v>114</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>79</v>
       </c>
@@ -31530,13 +31509,13 @@
         <v>79</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA244" t="s" s="2">
         <v>79</v>
@@ -31554,16 +31533,16 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>104</v>
@@ -31572,10 +31551,10 @@
         <v>79</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN244" t="s" s="2">
         <v>79</v>
@@ -31586,12 +31565,14 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C245" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>829</v>
+      </c>
       <c r="D245" t="s" s="2">
         <v>79</v>
       </c>
@@ -31600,7 +31581,7 @@
         <v>80</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>79</v>
@@ -31612,17 +31593,15 @@
         <v>79</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>113</v>
+        <v>830</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>79</v>
@@ -31671,7 +31650,7 @@
         <v>79</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>80</v>
@@ -31680,10 +31659,10 @@
         <v>81</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK245" t="s" s="2">
         <v>79</v>
@@ -31692,7 +31671,7 @@
         <v>636</v>
       </c>
       <c r="AM245" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN245" t="s" s="2">
         <v>79</v>
@@ -31703,14 +31682,12 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C246" t="s" s="2">
-        <v>835</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
         <v>79</v>
       </c>
@@ -31731,13 +31708,13 @@
         <v>79</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>836</v>
+        <v>107</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>633</v>
+        <v>108</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -31788,28 +31765,28 @@
         <v>79</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK246" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM246" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN246" t="s" s="2">
         <v>79</v>
@@ -31820,21 +31797,21 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>79</v>
@@ -31846,15 +31823,17 @@
         <v>79</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N247" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
         <v>79</v>
@@ -31903,19 +31882,19 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH247" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI247" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK247" t="s" s="2">
         <v>79</v>
@@ -31935,43 +31914,41 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K248" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N248" s="2"/>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
         <v>79</v>
@@ -32020,7 +31997,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>80</v>
@@ -32038,7 +32015,7 @@
         <v>79</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>79</v>
@@ -32052,42 +32029,46 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H249" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>181</v>
+        <v>643</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P249" t="s" s="2">
         <v>79</v>
       </c>
@@ -32135,28 +32116,28 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI249" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK249" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN249" t="s" s="2">
         <v>79</v>
@@ -32167,18 +32148,18 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>92</v>
@@ -32193,19 +32174,19 @@
         <v>79</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>79</v>
@@ -32215,7 +32196,7 @@
         <v>79</v>
       </c>
       <c r="S250" t="s" s="2">
-        <v>79</v>
+        <v>836</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>79</v>
@@ -32230,13 +32211,13 @@
         <v>79</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA250" t="s" s="2">
         <v>79</v>
@@ -32254,7 +32235,7 @@
         <v>79</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>80</v>
@@ -32272,10 +32253,10 @@
         <v>79</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN250" t="s" s="2">
         <v>79</v>
@@ -32286,10 +32267,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32297,7 +32278,7 @@
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>92</v>
@@ -32312,20 +32293,16 @@
         <v>79</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
         <v>79</v>
       </c>
@@ -32334,7 +32311,7 @@
         <v>79</v>
       </c>
       <c r="S251" t="s" s="2">
-        <v>842</v>
+        <v>79</v>
       </c>
       <c r="T251" t="s" s="2">
         <v>79</v>
@@ -32349,13 +32326,13 @@
         <v>79</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA251" t="s" s="2">
         <v>79</v>
@@ -32373,7 +32350,7 @@
         <v>79</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>647</v>
+        <v>109</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>80</v>
@@ -32385,16 +32362,16 @@
         <v>79</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK251" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL251" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM251" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN251" t="s" s="2">
         <v>79</v>
@@ -32405,21 +32382,21 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>79</v>
@@ -32431,15 +32408,17 @@
         <v>79</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N252" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
         <v>79</v>
@@ -32476,31 +32455,31 @@
         <v>79</v>
       </c>
       <c r="AB252" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC252" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD252" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ252" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK252" t="s" s="2">
         <v>79</v>
@@ -32520,18 +32499,18 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>81</v>
@@ -32543,21 +32522,23 @@
         <v>79</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O253" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O253" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P253" t="s" s="2">
         <v>79</v>
       </c>
@@ -32593,19 +32574,19 @@
         <v>79</v>
       </c>
       <c r="AB253" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC253" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD253" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>80</v>
@@ -32617,13 +32598,13 @@
         <v>79</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK253" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>79</v>
@@ -32637,10 +32618,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -32648,10 +32629,10 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>79</v>
@@ -32663,19 +32644,19 @@
         <v>93</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="P254" t="s" s="2">
         <v>79</v>
@@ -32724,13 +32705,13 @@
         <v>79</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH254" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI254" t="s" s="2">
         <v>79</v>
@@ -32742,7 +32723,7 @@
         <v>79</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>79</v>
@@ -32756,10 +32737,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -32770,7 +32751,7 @@
         <v>80</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H255" t="s" s="2">
         <v>79</v>
@@ -32779,22 +32760,20 @@
         <v>79</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>317</v>
+        <v>656</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N255" s="2"/>
       <c r="O255" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P255" t="s" s="2">
         <v>79</v>
@@ -32843,13 +32822,13 @@
         <v>79</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>321</v>
+        <v>654</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI255" t="s" s="2">
         <v>79</v>
@@ -32861,24 +32840,24 @@
         <v>79</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AM255" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN255" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO255" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -32889,7 +32868,7 @@
         <v>80</v>
       </c>
       <c r="G256" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H256" t="s" s="2">
         <v>79</v>
@@ -32901,18 +32880,18 @@
         <v>79</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N256" s="2"/>
-      <c r="O256" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="N256" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" t="s" s="2">
         <v>79</v>
       </c>
@@ -32960,13 +32939,13 @@
         <v>79</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH256" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI256" t="s" s="2">
         <v>79</v>
@@ -32978,24 +32957,24 @@
         <v>79</v>
       </c>
       <c r="AL256" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM256" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN256" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO256" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -33018,16 +32997,16 @@
         <v>79</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>788</v>
+        <v>662</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>789</v>
+        <v>663</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
@@ -33077,7 +33056,7 @@
         <v>79</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>80</v>
@@ -33086,7 +33065,7 @@
         <v>92</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ257" t="s" s="2">
         <v>104</v>
@@ -33095,10 +33074,10 @@
         <v>79</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM257" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN257" t="s" s="2">
         <v>79</v>
@@ -33109,10 +33088,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -33135,18 +33114,20 @@
         <v>79</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O258" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O258" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P258" t="s" s="2">
         <v>79</v>
       </c>
@@ -33170,13 +33151,13 @@
         <v>79</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z258" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA258" t="s" s="2">
         <v>79</v>
@@ -33194,7 +33175,7 @@
         <v>79</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>80</v>
@@ -33203,7 +33184,7 @@
         <v>92</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>104</v>
@@ -33212,24 +33193,24 @@
         <v>79</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM258" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN258" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO258" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33252,19 +33233,19 @@
         <v>79</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P259" t="s" s="2">
         <v>79</v>
@@ -33289,13 +33270,13 @@
         <v>79</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z259" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA259" t="s" s="2">
         <v>79</v>
@@ -33313,7 +33294,7 @@
         <v>79</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>80</v>
@@ -33331,7 +33312,7 @@
         <v>79</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>110</v>
@@ -33340,15 +33321,15 @@
         <v>79</v>
       </c>
       <c r="AO259" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33356,7 +33337,7 @@
       </c>
       <c r="E260" s="2"/>
       <c r="F260" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G260" t="s" s="2">
         <v>92</v>
@@ -33371,20 +33352,18 @@
         <v>79</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>220</v>
+        <v>847</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O260" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
         <v>79</v>
       </c>
@@ -33408,13 +33387,13 @@
         <v>79</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z260" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA260" t="s" s="2">
         <v>79</v>
@@ -33432,16 +33411,16 @@
         <v>79</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ260" t="s" s="2">
         <v>104</v>
@@ -33450,10 +33429,10 @@
         <v>79</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM260" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN260" t="s" s="2">
         <v>79</v>
@@ -33464,10 +33443,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33475,7 +33454,7 @@
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G261" t="s" s="2">
         <v>92</v>
@@ -33490,18 +33469,20 @@
         <v>79</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>853</v>
+        <v>220</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O261" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O261" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P261" t="s" s="2">
         <v>79</v>
       </c>
@@ -33525,13 +33506,13 @@
         <v>79</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z261" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA261" t="s" s="2">
         <v>79</v>
@@ -33549,13 +33530,13 @@
         <v>79</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>686</v>
@@ -33567,10 +33548,10 @@
         <v>79</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AM261" t="s" s="2">
-        <v>688</v>
+        <v>110</v>
       </c>
       <c r="AN261" t="s" s="2">
         <v>79</v>
@@ -33581,10 +33562,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33595,7 +33576,7 @@
         <v>80</v>
       </c>
       <c r="G262" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H262" t="s" s="2">
         <v>79</v>
@@ -33607,20 +33588,18 @@
         <v>79</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O262" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
         <v>79</v>
       </c>
@@ -33644,13 +33623,13 @@
         <v>79</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA262" t="s" s="2">
         <v>79</v>
@@ -33668,16 +33647,16 @@
         <v>79</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>104</v>
@@ -33686,132 +33665,15 @@
         <v>79</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM262" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN262" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO262" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="B263" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G263" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q263" s="2"/>
-      <c r="R263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF263" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AG263" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH263" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI263" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AJ263" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL263" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AM263" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AN263" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO263" t="s" s="2">
         <v>79</v>
       </c>
     </row>
